--- a/data/trans_dic/P16A11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Clase-trans_dic.xlsx
@@ -543,7 +543,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -1665,7 +1665,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
+          <t>Población que ha consumido medicamentos para la tensión arterial en las dos últimas semanas (tasa de respuesta: 99,92%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P16A11-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P16A11-Clase-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.07959417597012987</v>
+        <v>0.08221739691797983</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1295627073455011</v>
+        <v>0.1273430946994202</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.0933838780733504</v>
+        <v>0.09435059053801607</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1662797902709037</v>
+        <v>0.1688936555755804</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.06846176297505453</v>
+        <v>0.06726385811862252</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.05961964226260325</v>
+        <v>0.0607505260390407</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.06182445445895811</v>
+        <v>0.06422222932416516</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.09699191258493436</v>
+        <v>0.09909102536524897</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.08470783341638155</v>
+        <v>0.08425282763309482</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.1069744929352213</v>
+        <v>0.109293293959824</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.08858965746963246</v>
+        <v>0.0882017430311717</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1416660851221646</v>
+        <v>0.1431765871826315</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1383560395207503</v>
+        <v>0.1414295235227573</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2018276351766833</v>
+        <v>0.2049943252655857</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1604309512533651</v>
+        <v>0.1603604280845037</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.2315346116827668</v>
+        <v>0.2353948742381639</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.14187890544168</v>
+        <v>0.1391332082974351</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1323586777226018</v>
+        <v>0.1310699737095957</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.1333101611629766</v>
+        <v>0.1372037906485326</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.1456328559438108</v>
+        <v>0.1464314960815723</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.1295397834524351</v>
+        <v>0.1267232422096444</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.1658746284264406</v>
+        <v>0.1621814831706654</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.1361001646956252</v>
+        <v>0.1369505326638287</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.1834152778364142</v>
+        <v>0.1850507627746052</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.09502552643264395</v>
+        <v>0.09784238121505442</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1024084400823097</v>
+        <v>0.10201824751511</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1065468259614017</v>
+        <v>0.1103826123865751</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1759236658868913</v>
+        <v>0.1739843297370667</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.03519100106776097</v>
+        <v>0.03566392173688605</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.06428001032090455</v>
+        <v>0.06418403371223354</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.0495867165461334</v>
+        <v>0.04827243986131968</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.1057930262074959</v>
+        <v>0.1074837440798059</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.07372899534888065</v>
+        <v>0.07355679267657853</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.09215281008193481</v>
+        <v>0.09299445045702714</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.08623765810681711</v>
+        <v>0.08665498562465798</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.1510405658549691</v>
+        <v>0.1493157287485864</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.1683100416154846</v>
+        <v>0.166469180751236</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1668438767053489</v>
+        <v>0.1673086949250271</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1806010947414665</v>
+        <v>0.1790528382883457</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.2461975986359754</v>
+        <v>0.2438914268490572</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.08405990706038953</v>
+        <v>0.08538315093496172</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1344081789001482</v>
+        <v>0.1338116598413469</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.1106761290251774</v>
+        <v>0.1097142044283693</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.1577282036678917</v>
+        <v>0.1586108429128363</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.1173124555249378</v>
+        <v>0.1166325485565527</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.1430668707907007</v>
+        <v>0.140795344750359</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.1357471995898681</v>
+        <v>0.135289341064315</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.1957119387527071</v>
+        <v>0.1957230683139413</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.09190061508917335</v>
+        <v>0.09177932693064834</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.1810397296083301</v>
+        <v>0.1786445674837918</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1329836764396074</v>
+        <v>0.1290212814989558</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.1711766262366603</v>
+        <v>0.1722606250321346</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.09092162516664377</v>
+        <v>0.09156148227871075</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1720690793567789</v>
+        <v>0.1770181886644349</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.1449505013686315</v>
+        <v>0.1428784435889275</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1892417066518866</v>
+        <v>0.1870909970349691</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1005850985443016</v>
+        <v>0.09885080392072089</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.187243128107913</v>
+        <v>0.1878765084536154</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.1451376687408379</v>
+        <v>0.1450481289384673</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1850100161936377</v>
+        <v>0.1855382561110694</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.145400694215121</v>
+        <v>0.1465664981088369</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.2518159912942027</v>
+        <v>0.2469067635926709</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1978734972393876</v>
+        <v>0.1918176417189568</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2448204533162015</v>
+        <v>0.2490355563438263</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2050344997634662</v>
+        <v>0.1995516779772896</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.2790455226229653</v>
+        <v>0.2807481143421569</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.2808247780057717</v>
+        <v>0.2888695824632575</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.2801991544909207</v>
+        <v>0.2831491024248072</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.1504516708548701</v>
+        <v>0.149163001906938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.2474370159907835</v>
+        <v>0.2438280177473819</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.2030339898947596</v>
+        <v>0.2051806100801303</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2413788093625737</v>
+        <v>0.2447783143849476</v>
       </c>
     </row>
     <row r="13">
@@ -1105,7 +1105,7 @@
         <v>0.1489999592337595</v>
       </c>
       <c r="N13" s="5" t="n">
-        <v>0.1864513131125461</v>
+        <v>0.1864513131125462</v>
       </c>
     </row>
     <row r="14">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1430742381451957</v>
+        <v>0.1440113332300064</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1594439954351694</v>
+        <v>0.1601671664903788</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1559560613761427</v>
+        <v>0.1579524327054082</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1878977610279129</v>
+        <v>0.1882120253869206</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1157347326049162</v>
+        <v>0.11192832999825</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.08588245298601423</v>
+        <v>0.08733765454395094</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.08613171216923005</v>
+        <v>0.08563928867565526</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.1380884139626585</v>
+        <v>0.1373062506543158</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.137527024387842</v>
+        <v>0.1410289308870913</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.1386121299298783</v>
+        <v>0.1365255085108343</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.1323104166231407</v>
+        <v>0.1339415872953487</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.1707735702394728</v>
+        <v>0.1700945744923395</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1844168444979553</v>
+        <v>0.1864912156019778</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.2079582338256279</v>
+        <v>0.2067687886018066</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2009873530228209</v>
+        <v>0.2028140514098285</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2349969886360239</v>
+        <v>0.2369246086771376</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.1666351930279312</v>
+        <v>0.1642277649103191</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.1338274630423897</v>
+        <v>0.1321900765472624</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.131326278981878</v>
+        <v>0.1270688225549471</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1750994488297493</v>
+        <v>0.1734606463011166</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.1700767035266808</v>
+        <v>0.1725960923566226</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.170598517891841</v>
+        <v>0.1700228727063166</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.1646645702045374</v>
+        <v>0.1657964372435122</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.2020661975605884</v>
+        <v>0.2033217869559261</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.09018994093991391</v>
+        <v>0.09229620770859552</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1508849738852139</v>
+        <v>0.1492459083747013</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.142767614283486</v>
+        <v>0.1418990849163654</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1533024001111912</v>
+        <v>0.1523667801853206</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.1161661678006966</v>
+        <v>0.1201217880913061</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2190684542336485</v>
+        <v>0.2210656032112429</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1673976214643734</v>
+        <v>0.1670928948456395</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.2455318537497045</v>
+        <v>0.2441270727900695</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1151386353231069</v>
+        <v>0.1165624479302627</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2009437140808641</v>
+        <v>0.2007373705350917</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.1625375974910144</v>
+        <v>0.1629203477402937</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.2137737301056802</v>
+        <v>0.2139355335928709</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1568965609832187</v>
+        <v>0.1595050442027496</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.2218550589634987</v>
+        <v>0.2268757723113859</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.2009709985304494</v>
+        <v>0.2015895957688799</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.212184677506896</v>
+        <v>0.2126924170224598</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.1761173417482793</v>
+        <v>0.1800668200506859</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.2826884139375677</v>
+        <v>0.2824908154553584</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.2278336177899915</v>
+        <v>0.225291123946604</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.2916133235058651</v>
+        <v>0.2908045674322909</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.1621778603142363</v>
+        <v>0.1612512423373344</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.2504526724762038</v>
+        <v>0.2481621389707975</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.2046919121964028</v>
+        <v>0.2068832575753489</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.2505172281040414</v>
+        <v>0.2534065469314463</v>
       </c>
     </row>
     <row r="19">
@@ -1365,7 +1365,7 @@
         <v>0.2751937405852087</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>0.2864558811049174</v>
+        <v>0.2864558811049173</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>0.2010240295847073</v>
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.005682104856876292</v>
+        <v>0.006039877915898101</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.003658367437235097</v>
+        <v>0.003715485753927039</v>
       </c>
       <c r="E20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.003339301863300084</v>
+        <v>0.003308948044530809</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.2247790833383621</v>
+        <v>0.2228705640058873</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.2861575337201829</v>
+        <v>0.2859013533607568</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.247658419093436</v>
+        <v>0.2471660223837081</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.2579039342304809</v>
+        <v>0.2586089565097953</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.1816361501354627</v>
+        <v>0.1805838685550963</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.2344448288144454</v>
+        <v>0.2318086789904542</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.1945446328392364</v>
+        <v>0.194029053155488</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.2031746201889074</v>
+        <v>0.2058467042989559</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.03319626796794677</v>
+        <v>0.03542282030351612</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.03405797857661998</v>
+        <v>0.03710033741728138</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.01740261369978675</v>
+        <v>0.01963987899515316</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.03507542204659429</v>
+        <v>0.02987431250165326</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.2695480570004468</v>
+        <v>0.269260657248691</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.3436864053292392</v>
+        <v>0.3426863030289799</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.3033500795691185</v>
+        <v>0.3047262277295966</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.3124405015939941</v>
+        <v>0.3123640789747746</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.2233353060378162</v>
+        <v>0.2211862585580233</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.2816733963013422</v>
+        <v>0.2788273955785366</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.2415478672341761</v>
+        <v>0.2435002995157441</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.2481647587088501</v>
+        <v>0.248171058580388</v>
       </c>
     </row>
     <row r="22">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1160081559984581</v>
+        <v>0.1156486137733205</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.1538361765511484</v>
+        <v>0.1515855191470138</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.137504741032706</v>
+        <v>0.1372239092597471</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.177307244898668</v>
+        <v>0.1767201540821967</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1540845944381202</v>
+        <v>0.1545849962330312</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1946419138538485</v>
+        <v>0.1960069205345748</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1630336072067831</v>
+        <v>0.165418799847476</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1979538972850301</v>
+        <v>0.1979607613516379</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.138599545295832</v>
+        <v>0.1386411647185317</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1776295852889997</v>
+        <v>0.1787380284907343</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.1534908562481913</v>
+        <v>0.1542621539500468</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.1905207251351651</v>
+        <v>0.1908273132161923</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.1370646357008909</v>
+        <v>0.138916355718164</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.1803302348419959</v>
+        <v>0.1800697826164855</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.1614685585531416</v>
+        <v>0.1613056471417698</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.2017242639347467</v>
+        <v>0.2019493341025434</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.1804477355927434</v>
+        <v>0.1788979624668174</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.2231233796967773</v>
+        <v>0.2238065182166153</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.190331153646287</v>
+        <v>0.192802538265354</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.2181611924825996</v>
+        <v>0.2187650131342519</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.1560534118144363</v>
+        <v>0.1556220890263184</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.1980042687970036</v>
+        <v>0.1980298273579776</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.1721942140042311</v>
+        <v>0.1728380871142008</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.2071957222505502</v>
+        <v>0.2080291939686235</v>
       </c>
     </row>
     <row r="25">
@@ -1874,40 +1874,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>37710</v>
+        <v>38953</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>56646</v>
+        <v>55676</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>40070</v>
+        <v>40485</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>91557</v>
+        <v>92996</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>20996</v>
+        <v>20628</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>18748</v>
+        <v>19103</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>21456</v>
+        <v>22289</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>47372</v>
+        <v>48397</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>66111</v>
+        <v>65756</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>80409</v>
+        <v>82152</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>68759</v>
+        <v>68458</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>147195</v>
+        <v>148765</v>
       </c>
     </row>
     <row r="7">
@@ -1918,40 +1918,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>65550</v>
+        <v>67006</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>88241</v>
+        <v>89626</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>68840</v>
+        <v>68809</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>127487</v>
+        <v>129613</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>43511</v>
+        <v>42669</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>41621</v>
+        <v>41215</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>46266</v>
+        <v>47617</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>71129</v>
+        <v>71519</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>101100</v>
+        <v>98902</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>124682</v>
+        <v>121906</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>105634</v>
+        <v>106294</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>190574</v>
+        <v>192273</v>
       </c>
     </row>
     <row r="8">
@@ -2054,40 +2054,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>34868</v>
+        <v>35902</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>42706</v>
+        <v>42543</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>40192</v>
+        <v>41639</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>84846</v>
+        <v>83911</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13086</v>
+        <v>13262</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>21554</v>
+        <v>21522</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18460</v>
+        <v>17971</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>44766</v>
+        <v>45481</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>54471</v>
+        <v>54344</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>69330</v>
+        <v>69963</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>64635</v>
+        <v>64948</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>136757</v>
+        <v>135195</v>
       </c>
     </row>
     <row r="11">
@@ -2098,40 +2098,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>61759</v>
+        <v>61083</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>69577</v>
+        <v>69771</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>68128</v>
+        <v>67544</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>118739</v>
+        <v>117626</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>31259</v>
+        <v>31751</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>45069</v>
+        <v>44869</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>41202</v>
+        <v>40844</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>66742</v>
+        <v>67115</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>86670</v>
+        <v>86168</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>107634</v>
+        <v>105925</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>101743</v>
+        <v>101399</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>177204</v>
+        <v>177214</v>
       </c>
     </row>
     <row r="12">
@@ -2234,40 +2234,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>49846</v>
+        <v>49780</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>113753</v>
+        <v>112248</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>69406</v>
+        <v>67338</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>80729</v>
+        <v>81240</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>15255</v>
+        <v>15362</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>44189</v>
+        <v>45460</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>24080</v>
+        <v>23735</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>35482</v>
+        <v>35079</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>71433</v>
+        <v>70201</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>165737</v>
+        <v>166297</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>99860</v>
+        <v>99798</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>121942</v>
+        <v>122290</v>
       </c>
     </row>
     <row r="15">
@@ -2278,40 +2278,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>78864</v>
+        <v>79496</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>158223</v>
+        <v>155139</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>103273</v>
+        <v>100112</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>115460</v>
+        <v>117448</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>34401</v>
+        <v>33481</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>71662</v>
+        <v>72099</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>46651</v>
+        <v>47988</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>52537</v>
+        <v>53090</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106846</v>
+        <v>105931</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>219017</v>
+        <v>215822</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>139695</v>
+        <v>141172</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>159095</v>
+        <v>161336</v>
       </c>
     </row>
     <row r="16">
@@ -2414,40 +2414,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>177174</v>
+        <v>178334</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>184657</v>
+        <v>185494</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>179293</v>
+        <v>181588</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>212671</v>
+        <v>213026</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>82668</v>
+        <v>79949</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>65842</v>
+        <v>66958</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>71134</v>
+        <v>70727</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>118841</v>
+        <v>118168</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>268538</v>
+        <v>275376</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>266799</v>
+        <v>262783</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>261381</v>
+        <v>264603</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>340259</v>
+        <v>338906</v>
       </c>
     </row>
     <row r="19">
@@ -2458,40 +2458,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>228370</v>
+        <v>230938</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>240843</v>
+        <v>239465</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>231063</v>
+        <v>233163</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>265980</v>
+        <v>268161</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>119025</v>
+        <v>117305</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>102600</v>
+        <v>101344</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>108459</v>
+        <v>104943</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>150693</v>
+        <v>149283</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>332095</v>
+        <v>337015</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>328366</v>
+        <v>327258</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>325297</v>
+        <v>327533</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>402608</v>
+        <v>405110</v>
       </c>
     </row>
     <row r="20">
@@ -2594,40 +2594,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>31525</v>
+        <v>32261</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>77041</v>
+        <v>76204</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>88617</v>
+        <v>88078</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>86919</v>
+        <v>86388</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>66070</v>
+        <v>68320</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>166340</v>
+        <v>167856</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>123580</v>
+        <v>123355</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>203823</v>
+        <v>202656</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>105731</v>
+        <v>107038</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>255179</v>
+        <v>254917</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>220880</v>
+        <v>221401</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>298664</v>
+        <v>298890</v>
       </c>
     </row>
     <row r="23">
@@ -2638,40 +2638,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>54841</v>
+        <v>55753</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>113278</v>
+        <v>115842</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>124744</v>
+        <v>125128</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>120304</v>
+        <v>120591</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>100167</v>
+        <v>102413</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>214647</v>
+        <v>214497</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>168197</v>
+        <v>166320</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>242076</v>
+        <v>241405</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>148926</v>
+        <v>148075</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>318050</v>
+        <v>315141</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>278166</v>
+        <v>281144</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>349998</v>
+        <v>354035</v>
       </c>
     </row>
     <row r="24">
@@ -2774,40 +2774,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>1694</v>
+        <v>1801</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>973</v>
+        <v>988</v>
       </c>
       <c r="E26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>792</v>
+        <v>785</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>280695</v>
+        <v>278312</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>316576</v>
+        <v>316293</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>267973</v>
+        <v>267440</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>217411</v>
+        <v>218006</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>280984</v>
+        <v>279356</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>321691</v>
+        <v>318074</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>266365</v>
+        <v>265659</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>219473</v>
+        <v>222360</v>
       </c>
     </row>
     <row r="27">
@@ -2818,40 +2818,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>9899</v>
+        <v>10563</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>9054</v>
+        <v>9863</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>4997</v>
+        <v>5639</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>8321</v>
+        <v>7087</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>336601</v>
+        <v>336242</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>380220</v>
+        <v>379114</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>328232</v>
+        <v>329721</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>263385</v>
+        <v>263321</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>345491</v>
+        <v>342166</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>386496</v>
+        <v>382591</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>330720</v>
+        <v>333393</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>268073</v>
+        <v>268080</v>
       </c>
     </row>
     <row r="28">
@@ -2954,40 +2954,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>379251</v>
+        <v>378075</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>525677</v>
+        <v>517987</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>465553</v>
+        <v>464602</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>610037</v>
+        <v>608017</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>520517</v>
+        <v>522207</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>688807</v>
+        <v>693638</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>575769</v>
+        <v>584192</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>719124</v>
+        <v>719149</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>921312</v>
+        <v>921589</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>1235586</v>
+        <v>1243296</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>1061745</v>
+        <v>1067080</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>1347620</v>
+        <v>1349789</v>
       </c>
     </row>
     <row r="31">
@@ -2998,40 +2998,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>448088</v>
+        <v>454141</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>616211</v>
+        <v>615321</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>546688</v>
+        <v>546136</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>694046</v>
+        <v>694820</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>609575</v>
+        <v>604340</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>789599</v>
+        <v>792016</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>672173</v>
+        <v>680901</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>792533</v>
+        <v>794726</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>1037333</v>
+        <v>1034466</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>1377312</v>
+        <v>1377489</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>1191122</v>
+        <v>1195576</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>1465568</v>
+        <v>1471464</v>
       </c>
     </row>
     <row r="32">
